--- a/NICE/features.xlsx
+++ b/NICE/features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yumi\Documents\GitHub\OHE Internship\NICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4E4BA4-CE68-4B93-BACA-35EFCFCD5E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06035D0A-A643-417C-BA2C-484B1EE2B93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEDAC3DD-878E-49CA-8363-74B648736665}"/>
   </bookViews>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3A831D-231C-4340-BA80-C54E832A92F2}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
